--- a/PMDoc/plan/esimate/第一阶段功能评估.xlsx
+++ b/PMDoc/plan/esimate/第一阶段功能评估.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -74,6 +74,38 @@
   </si>
   <si>
     <t>实际完成时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优惠活动首页展现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动详情页面原型调整</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动详情实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优惠活动维护页面（增删改查）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户注册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户登陆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收藏夹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人信息查看、修改</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -150,25 +182,25 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -189,7 +221,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -231,7 +263,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -266,7 +298,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -475,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -484,221 +516,229 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.25" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.375" style="1" customWidth="1"/>
-    <col min="5" max="6" width="18.25" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.75" style="1" customWidth="1"/>
+    <col min="5" max="6" width="18.25" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="57.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="7" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="4">
+      <c r="A2" s="9">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
+      <c r="D2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="5">
+        <v>41952</v>
+      </c>
+      <c r="F2" s="5"/>
       <c r="G2" s="3"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="2"/>
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
+      <c r="A6" s="9">
+        <v>2</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="4">
-        <v>2</v>
-      </c>
-      <c r="B8" s="4" t="s">
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A13" s="9">
         <v>3</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
+      <c r="B13" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A15" s="4">
-        <v>3</v>
-      </c>
-      <c r="B15" s="4" t="s">
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A17" s="9">
         <v>4</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A19" s="4">
-        <v>4</v>
-      </c>
-      <c r="B19" s="4" t="s">
+      <c r="B17" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C17" s="9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
+      <c r="D17" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="C2:C7"/>
-    <mergeCell ref="C8:C14"/>
-    <mergeCell ref="C15:C18"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="C19:C22"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="B2:B7"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="B8:B14"/>
-    <mergeCell ref="A8:A14"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="C6:C12"/>
+    <mergeCell ref="C13:C16"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="C17:C20"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="B6:B12"/>
+    <mergeCell ref="A6:A12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
